--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/REMISIONES CENTRAL Junio 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/REMISIONES CENTRAL Junio 2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="11475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  Jun 2022" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J244"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,8 +8633,8 @@
   </sheetPr>
   <dimension ref="A2:I244"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15226,7 +15226,7 @@
   </sheetPr>
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
